--- a/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
+++ b/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WebDataCanine" r:id="rId3" sheetId="1"/>
+    <sheet name="WebData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
+++ b/OutputFiles/TC25_Canine_Filter_Breed-Greyhnd_WebData.xlsx
@@ -12,66 +12,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Case ID</t>
+    <t>File Name</t>
   </si>
   <si>
-    <t>Study Code</t>
+    <t>File Type</t>
   </si>
   <si>
-    <t>Study Type</t>
+    <t>Association</t>
   </si>
   <si>
-    <t>Breed</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>Diagnosis</t>
+    <t>Format</t>
   </si>
   <si>
-    <t>Stage of Disease</t>
+    <t>Size</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>CCB050022.pdf</t>
   </si>
   <si>
-    <t>Sex</t>
+    <t>Pathology Report</t>
   </si>
   <si>
-    <t>Neutered Status</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB020026</t>
-  </si>
-  <si>
-    <t>NCATS-COP01</t>
-  </si>
-  <si>
-    <t>Transcriptomics</t>
-  </si>
-  <si>
-    <t>Greyhound</t>
-  </si>
-  <si>
-    <t>Bone sarcomas :: Osteosarcoma (appendicular)</t>
+    <t>diagnosis</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>7</t>
+    <t>pdf</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>NCATS-COP01CCB050022</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>105.75 KB</t>
   </si>
 </sst>
 </file>
@@ -116,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,72 +117,25 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
